--- a/medicine/Pharmacie/Noms_commerciaux_du_paracétamol/Noms_commerciaux_du_paracétamol.xlsx
+++ b/medicine/Pharmacie/Noms_commerciaux_du_paracétamol/Noms_commerciaux_du_paracétamol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noms_commerciaux_du_parac%C3%A9tamol</t>
+          <t>Noms_commerciaux_du_paracétamol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médicament paracétamol (DCI) est vendu dans le monde entier sous un certain nombre de noms de marque différents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noms_commerciaux_du_parac%C3%A9tamol</t>
+          <t>Noms_commerciaux_du_paracétamol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1955, le Panadol a été introduit dans les hôpitaux du Royaume-Uni[1]. Il a d'abord été commercialisé par Phillips, Scott &amp; Turner, qui a été acquis par Frederick Stearns &amp; Co, une filiale de Sterling Drug Inc. Il a été annoncé comme étant « doux pour l'estomac », car d'autres anti-inflammatoires non stéroïdiens comme l'aspirine, irritaient d'estomac. Le Panadol était à l'origine disponible uniquement sur ordonnance au Royaume-Uni, mais il est maintenant disponible en vente libre.
-En 1983, Sterling a introduit le Panadol sur le marché des États-Unis[2]. En 1988, Sterling Winthrop a été acquis par Eastman Kodak qui a vendu le commerce mondial de médicaments en vente libre à SmithKline Beecham en 1994[3]. Deux semaines plus tard, SmithKline Beecham a vendu l'activité de médicaments en vente libre aux États-Unis, au Canada et à Porto Rico à Bayer pour 1 milliard de dollars américains[4]. Cependant, les droits nord-américains du Panadol ont été conservés par SmithKline[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1955, le Panadol a été introduit dans les hôpitaux du Royaume-Uni. Il a d'abord été commercialisé par Phillips, Scott &amp; Turner, qui a été acquis par Frederick Stearns &amp; Co, une filiale de Sterling Drug Inc. Il a été annoncé comme étant « doux pour l'estomac », car d'autres anti-inflammatoires non stéroïdiens comme l'aspirine, irritaient d'estomac. Le Panadol était à l'origine disponible uniquement sur ordonnance au Royaume-Uni, mais il est maintenant disponible en vente libre.
+En 1983, Sterling a introduit le Panadol sur le marché des États-Unis. En 1988, Sterling Winthrop a été acquis par Eastman Kodak qui a vendu le commerce mondial de médicaments en vente libre à SmithKline Beecham en 1994. Deux semaines plus tard, SmithKline Beecham a vendu l'activité de médicaments en vente libre aux États-Unis, au Canada et à Porto Rico à Bayer pour 1 milliard de dollars américains. Cependant, les droits nord-américains du Panadol ont été conservés par SmithKline.
 Il a été qualifié de « médicament le plus fréquemment contrefait au monde ».
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Noms_commerciaux_du_parac%C3%A9tamol</t>
+          <t>Noms_commerciaux_du_paracétamol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
